--- a/data/trans_camb/P68-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P68-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P68-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P68-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; 10,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 19,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 2,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 13,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 13,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 27,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 7,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 13,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 8,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; 39,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,1; 72,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,1; 9,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,81; 70,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,41; 62,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 126,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,74; 31,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 53,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,8; 30,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 3,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; -1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 9,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 1,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 1,85</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,65%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 12,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 13,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,19; -6,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,44; 37,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; 19,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 54,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 13,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,6; 6,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; 8,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; 5,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 9,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 4,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 1,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 5,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 2,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,27; 10,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,84; 39,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,82; 21,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,21; 31,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; 50,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,32; 22,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,76; 10,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,29; 31,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,16; 13,6</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 1,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,45; -2,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 4,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 3,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 6,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 1,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 1,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 0,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,42; 7,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,68; 12,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,4; -11,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,51; 25,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; 16,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 30,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,19; 7,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,08; 7,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; 0,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P68-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,82</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 2,0</t>
+          <t>-15,72; 1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 27,98</t>
+          <t>-5,21; 23,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 8,05</t>
+          <t>-9,73; 5,69</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,47%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-9,96%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 9,27</t>
+          <t>-49,38; 6,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 126,35</t>
+          <t>-18,94; 110,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 30,21</t>
+          <t>-33,45; 22,25</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,52</t>
+          <t>-16,67; -2,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,82</t>
+          <t>-1,23; 15,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,85</t>
+          <t>-9,3; 1,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>-31,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-12,82%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,19; -6,59</t>
+          <t>-60,72; -11,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 54,88</t>
+          <t>-5,61; 77,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 8,2</t>
+          <t>-37,15; 8,15</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 3,27</t>
+          <t>-7,93; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,15</t>
+          <t>-7,14; 4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,4</t>
+          <t>-5,99; 2,25</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>-14,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-5,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-8,31%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 21,0</t>
+          <t>-38,94; 21,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 22,0</t>
+          <t>-27,57; 21,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 13,6</t>
+          <t>-26,57; 12,81</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -2,6</t>
+          <t>-13,32; -3,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 6,02</t>
+          <t>-1,71; 7,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,03</t>
+          <t>-7,8; -0,06</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>-29,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-13,82%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,4; -11,07</t>
+          <t>-52,73; -15,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 30,36</t>
+          <t>-7,61; 38,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,13</t>
+          <t>-32,2; -0,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P68-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 10,74</t>
+          <t>-6,2; 10,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 19,62</t>
+          <t>0,47; 20,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 1,36</t>
+          <t>-15,64; 2,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 13,77</t>
+          <t>-8,08; 12,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 13,12</t>
+          <t>-10,76; 13,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 23,16</t>
+          <t>-5,16; 21,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 7,92</t>
+          <t>-4,86; 8,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 13,93</t>
+          <t>-1,16; 15,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 5,69</t>
+          <t>-10,08; 4,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 39,96</t>
+          <t>-18,99; 37,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 72,15</t>
+          <t>1,56; 74,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 6,52</t>
+          <t>-49,11; 10,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 70,46</t>
+          <t>-28,55; 64,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 62,68</t>
+          <t>-37,94; 71,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 110,03</t>
+          <t>-19,98; 107,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 31,55</t>
+          <t>-16,01; 31,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 53,71</t>
+          <t>-4,14; 59,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 22,25</t>
+          <t>-33,52; 17,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,07</t>
+          <t>-4,92; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,2</t>
+          <t>-4,81; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -2,84</t>
+          <t>-17,85; -2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,03</t>
+          <t>-2,89; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,42</t>
+          <t>-6,25; 2,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 15,01</t>
+          <t>-0,87; 13,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,04</t>
+          <t>-3,14; 3,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,38</t>
+          <t>-4,35; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,88</t>
+          <t>-10,02; 1,47</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 12,58</t>
+          <t>-17,5; 14,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 13,57</t>
+          <t>-17,22; 13,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,72; -11,53</t>
+          <t>-63,88; -11,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 37,39</t>
+          <t>-12,68; 41,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 19,78</t>
+          <t>-27,17; 16,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 77,12</t>
+          <t>-4,89; 73,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 13,23</t>
+          <t>-12,31; 14,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 6,18</t>
+          <t>-16,8; 6,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 8,15</t>
+          <t>-38,74; 6,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 1,67</t>
+          <t>-9,32; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,32</t>
+          <t>-6,06; 6,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 3,3</t>
+          <t>-7,77; 3,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,69</t>
+          <t>-9,28; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 9,26</t>
+          <t>-5,1; 8,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 4,05</t>
+          <t>-7,49; 4,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 1,84</t>
+          <t>-7,19; 1,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,65</t>
+          <t>-3,52; 5,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,25</t>
+          <t>-5,53; 2,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 10,71</t>
+          <t>-43,63; 16,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 39,81</t>
+          <t>-28,57; 41,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 21,07</t>
+          <t>-38,32; 19,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 31,16</t>
+          <t>-37,44; 27,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 50,87</t>
+          <t>-20,77; 44,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 21,46</t>
+          <t>-28,01; 25,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 10,42</t>
+          <t>-32,82; 9,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 31,95</t>
+          <t>-15,67; 32,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 12,81</t>
+          <t>-24,48; 13,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,71</t>
+          <t>-4,94; 1,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,01</t>
+          <t>-3,37; 2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -3,61</t>
+          <t>-14,55; -3,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,96</t>
+          <t>-2,98; 4,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 3,2</t>
+          <t>-4,48; 3,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,9</t>
+          <t>-1,37; 8,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,72</t>
+          <t>-3,02; 1,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,78</t>
+          <t>-2,92; 1,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,06</t>
+          <t>-7,55; -0,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 7,17</t>
+          <t>-18,8; 5,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 12,84</t>
+          <t>-12,97; 11,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,73; -15,12</t>
+          <t>-55,29; -16,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 25,7</t>
+          <t>-12,21; 23,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 16,02</t>
+          <t>-18,54; 16,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 38,83</t>
+          <t>-6,32; 44,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 7,51</t>
+          <t>-12,25; 8,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 7,97</t>
+          <t>-11,73; 7,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -0,3</t>
+          <t>-30,35; -0,89</t>
         </is>
       </c>
     </row>
